--- a/Data Discovery.xlsx
+++ b/Data Discovery.xlsx
@@ -9,13 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Inventory" sheetId="2" r:id="rId2"/>
-    <sheet name="Questions" sheetId="3" r:id="rId3"/>
+    <sheet name="SWOT" sheetId="4" r:id="rId2"/>
+    <sheet name="Data Inventory" sheetId="2" r:id="rId3"/>
+    <sheet name="Questions" sheetId="3" r:id="rId4"/>
+    <sheet name="Objectives" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Inventory'!$A$1:$H$75</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="149">
   <si>
     <t>Establishing the Business Need: Part 1</t>
   </si>
@@ -254,18 +259,9 @@
     <t>Types</t>
   </si>
   <si>
-    <t>1 to 5</t>
-  </si>
-  <si>
-    <t>Assumption: These are lookup tables</t>
-  </si>
-  <si>
     <t>Monte Carlo</t>
   </si>
   <si>
-    <t>Is this file related or not???</t>
-  </si>
-  <si>
     <t>Customer_Assets_O1</t>
   </si>
   <si>
@@ -287,19 +283,203 @@
     <t>What is the key for  Asset_Objective_Name(1-5)?</t>
   </si>
   <si>
-    <t>Are Customer ID's linked?</t>
-  </si>
-  <si>
     <t>Field Name</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>What does the Total figure represent from Customer Assets file?</t>
-  </si>
-  <si>
     <t>Word</t>
+  </si>
+  <si>
+    <t>Data Profiling</t>
+  </si>
+  <si>
+    <t>Data Inventory</t>
+  </si>
+  <si>
+    <t>WSD - pilot prg for fresh perspective for an innovate model.
+A win = well thought out invest stratgy, well thought out, demographic profiling</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Jeevan</t>
+  </si>
+  <si>
+    <t>Jideofor</t>
+  </si>
+  <si>
+    <t>Jit</t>
+  </si>
+  <si>
+    <t>Deepthi</t>
+  </si>
+  <si>
+    <t>Sayed</t>
+  </si>
+  <si>
+    <t>Pentaho, PBI</t>
+  </si>
+  <si>
+    <t>PBI, Pentaho</t>
+  </si>
+  <si>
+    <t>Wassieu</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>SQL, Data Modelling, PBI</t>
+  </si>
+  <si>
+    <t>SQL, PBI, Data Modelling</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
+    <t>Threats</t>
+  </si>
+  <si>
+    <t>Is the busines going to use the solution moving forwards?</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>What does the Total figure represent from Customer Assets file? Is the Total Fund Value?</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Currency???</t>
+  </si>
+  <si>
+    <t>Risk_Profile</t>
+  </si>
+  <si>
+    <t>Total Fund Currency towards each Asset Objective</t>
+  </si>
+  <si>
+    <t>comes in from a variety of sources. Engineers need to decipher.</t>
+  </si>
+  <si>
+    <t>Assuming Customer ID's are linked?</t>
+  </si>
+  <si>
+    <t>SQL, ETL</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Data Modelling</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Asset_Classes</t>
+  </si>
+  <si>
+    <t>ASSET_CLASS</t>
+  </si>
+  <si>
+    <t>RISK_PROFILE_ID</t>
+  </si>
+  <si>
+    <t>Fee_Structures</t>
+  </si>
+  <si>
+    <t>Asset_Class_ID</t>
+  </si>
+  <si>
+    <t>Flat_Fee</t>
+  </si>
+  <si>
+    <t>Percentage_Fee</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Potential_Funds</t>
+  </si>
+  <si>
+    <t>Fund_Name</t>
+  </si>
+  <si>
+    <t>Fund_Description</t>
+  </si>
+  <si>
+    <t>Minimum_Investment_Required</t>
+  </si>
+  <si>
+    <t>Maximum_Investment_Allowed</t>
+  </si>
+  <si>
+    <t>Fund_Assets</t>
+  </si>
+  <si>
+    <t>Fund_ID</t>
+  </si>
+  <si>
+    <t>Percent_Of_Fund</t>
+  </si>
+  <si>
+    <t>Customer_Funds</t>
+  </si>
+  <si>
+    <t>Amount_Invested</t>
+  </si>
+  <si>
+    <t>Fund_Targets</t>
+  </si>
+  <si>
+    <t>Target_Description</t>
+  </si>
+  <si>
+    <t>Engagement_Frequencies</t>
+  </si>
+  <si>
+    <t>Frequency_Name</t>
+  </si>
+  <si>
+    <t>Engagement_Types</t>
+  </si>
+  <si>
+    <t>Engagement_Type_Name</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Contact pref</t>
+  </si>
+  <si>
+    <t>Contact Freq</t>
+  </si>
+  <si>
+    <t>NO FIELD NAME</t>
   </si>
 </sst>
 </file>
@@ -323,12 +503,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -343,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -355,7 +541,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,18 +824,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -766,7 +962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -789,11 +985,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" activeCellId="2" sqref="A7 A5 A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,9 +1088,11 @@
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -817,10 +1106,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>33</v>
@@ -842,8 +1131,11 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -856,8 +1148,11 @@
       <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -870,8 +1165,11 @@
       <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,8 +1182,11 @@
       <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -898,8 +1199,11 @@
       <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -912,8 +1216,11 @@
       <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,8 +1233,11 @@
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,8 +1250,11 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -954,8 +1267,11 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -968,8 +1284,11 @@
       <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -982,8 +1301,11 @@
       <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,8 +1318,11 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1010,8 +1335,11 @@
       <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1024,8 +1352,11 @@
       <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1038,11 +1369,14 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1052,11 +1386,14 @@
       <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1066,11 +1403,14 @@
       <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1080,11 +1420,14 @@
       <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1094,11 +1437,14 @@
       <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1108,11 +1454,14 @@
       <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1122,11 +1471,14 @@
       <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1136,11 +1488,14 @@
       <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1150,353 +1505,937 @@
       <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="G51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="G52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
         <v>67</v>
       </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="G53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="G54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="G57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="G58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="G59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="G60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="G61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="G62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
         <v>71</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D63" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="G63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D64" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F64" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D65" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F65" t="s">
+        <v>147</v>
+      </c>
+      <c r="G65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B66" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D66" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E70" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" t="s">
-        <v>83</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1504,37 +2443,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
+    <row r="1" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
